--- a/data/sen/sn_match_ego_alter_organizations_2025-09-23_KEY.xlsx
+++ b/data/sen/sn_match_ego_alter_organizations_2025-09-23_KEY.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/marfisher_ucdavis_edu/Documents/Documents/russian/data/sen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DA35E2E0-F40F-47BB-B568-810BF0932543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:40009_{DA35E2E0-F40F-47BB-B568-810BF0932543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE607FD4-2EAA-4DE7-B3D7-D4BB6AA1DE51}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sn_match_ego_alter_organization" sheetId="1" r:id="rId1"/>
     <sheet name="key" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">key!$A$1:$D$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">key!$A$1:$D$209</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="302">
   <si>
     <t>org_name</t>
   </si>
@@ -932,12 +941,15 @@
   </si>
   <si>
     <t>University of Washington - Friday Harbor Labs</t>
+  </si>
+  <si>
+    <t>NOAA Office of National Marine Sanctuaries - West Coast Region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1771,11 +1783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L179" sqref="L179"/>
     </sheetView>
   </sheetViews>
@@ -4314,7 +4326,7 @@
       </c>
       <c r="H97">
         <f>COUNTIF(key!A:A,sn_match_ego_alter_organization!A97)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -4364,7 +4376,7 @@
       </c>
       <c r="H99">
         <f>COUNTIF(key!A:A,sn_match_ego_alter_organization!A99)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -6790,12 +6802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D207"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A245" sqref="A245"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114:D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6820,26 +6831,26 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>222</v>
@@ -6848,390 +6859,390 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>225</v>
       </c>
       <c r="D6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>220</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
         <v>220</v>
       </c>
       <c r="D20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
         <v>225</v>
       </c>
-      <c r="D21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" t="s">
-        <v>222</v>
-      </c>
-      <c r="D24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>220</v>
@@ -7240,12 +7251,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>220</v>
@@ -7254,166 +7265,166 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D33" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D34" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
         <v>224</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
         <v>220</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
         <v>224</v>
@@ -7422,656 +7433,656 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
         <v>220</v>
       </c>
-      <c r="D45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
         <v>225</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" t="s">
-        <v>220</v>
       </c>
       <c r="D47" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D48" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D49" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>246</v>
-      </c>
-      <c r="B57" t="s">
-        <v>195</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
         <v>220</v>
-      </c>
-      <c r="D57" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>247</v>
-      </c>
-      <c r="B58" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>215</v>
-      </c>
-      <c r="B59" t="s">
-        <v>215</v>
-      </c>
-      <c r="C59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B60" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>248</v>
-      </c>
-      <c r="B61" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>249</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>250</v>
-      </c>
-      <c r="B63" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>251</v>
-      </c>
-      <c r="B64" t="s">
-        <v>251</v>
-      </c>
-      <c r="C64" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" t="s">
-        <v>225</v>
-      </c>
-      <c r="D65" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>252</v>
-      </c>
-      <c r="B66" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" t="s">
-        <v>238</v>
       </c>
       <c r="D66" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D67" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
         <v>225</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="D71" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D72" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D74" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>292</v>
+      </c>
+      <c r="B78" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" t="s">
-        <v>220</v>
-      </c>
-      <c r="D78" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>224</v>
       </c>
       <c r="D79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>238</v>
-      </c>
-      <c r="D80" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>225</v>
-      </c>
-      <c r="D81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" t="s">
-        <v>220</v>
-      </c>
-      <c r="D82" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D83" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D84" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D85" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D87" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>289</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
         <v>225</v>
@@ -8080,124 +8091,124 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>224</v>
+      </c>
+      <c r="D95" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" t="s">
-        <v>224</v>
-      </c>
-      <c r="D93" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" t="s">
-        <v>224</v>
-      </c>
-      <c r="D94" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>72</v>
-      </c>
-      <c r="B95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" t="s">
-        <v>220</v>
-      </c>
-      <c r="D95" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="D96" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D97" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
         <v>224</v>
       </c>
       <c r="D98" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D99" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
         <v>224</v>
@@ -8206,180 +8217,180 @@
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D101" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D102" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C103" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D103" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D104" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="C105" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D105" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D106" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>258</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
         <v>224</v>
       </c>
       <c r="D107" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D108" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
         <v>238</v>
       </c>
-      <c r="D109" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" t="s">
-        <v>164</v>
-      </c>
-      <c r="C110" t="s">
-        <v>225</v>
-      </c>
       <c r="D110" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D111" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D112" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
         <v>238</v>
@@ -8388,12 +8399,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
         <v>238</v>
@@ -8402,222 +8413,222 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D115" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D116" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D117" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" t="s">
+        <v>225</v>
+      </c>
+      <c r="D119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" t="s">
+        <v>225</v>
+      </c>
+      <c r="D121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" t="s">
+        <v>220</v>
+      </c>
+      <c r="D122" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" t="s">
+        <v>220</v>
+      </c>
+      <c r="D123" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" t="s">
         <v>222</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D124" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>64</v>
-      </c>
-      <c r="B120" t="s">
-        <v>64</v>
-      </c>
-      <c r="C120" t="s">
-        <v>85</v>
-      </c>
-      <c r="D120" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>143</v>
-      </c>
-      <c r="B121" t="s">
-        <v>143</v>
-      </c>
-      <c r="C121" t="s">
-        <v>85</v>
-      </c>
-      <c r="D121" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>17</v>
-      </c>
-      <c r="B122" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" t="s">
-        <v>225</v>
-      </c>
-      <c r="D122" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>146</v>
-      </c>
-      <c r="B123" t="s">
-        <v>145</v>
-      </c>
-      <c r="C123" t="s">
-        <v>222</v>
-      </c>
-      <c r="D123" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>67</v>
-      </c>
-      <c r="B124" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" t="s">
-        <v>238</v>
-      </c>
-      <c r="D124" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D125" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D126" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C127" t="s">
         <v>220</v>
       </c>
       <c r="D127" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" t="s">
+        <v>224</v>
+      </c>
+      <c r="D128" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129" t="s">
+        <v>220</v>
+      </c>
+      <c r="D129" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>36</v>
-      </c>
-      <c r="B128" t="s">
-        <v>36</v>
-      </c>
-      <c r="C128" t="s">
-        <v>232</v>
-      </c>
-      <c r="D128" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" t="s">
-        <v>222</v>
-      </c>
-      <c r="D129" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
         <v>220</v>
@@ -8626,936 +8637,936 @@
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="C131" t="s">
+        <v>253</v>
+      </c>
+      <c r="D131" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
+        <v>295</v>
+      </c>
+      <c r="C132" t="s">
+        <v>85</v>
+      </c>
+      <c r="D132" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" t="s">
         <v>225</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D133" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>134</v>
-      </c>
-      <c r="B132" t="s">
-        <v>134</v>
-      </c>
-      <c r="C132" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134" t="s">
+        <v>225</v>
+      </c>
+      <c r="D134" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
         <v>224</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D135" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>141</v>
-      </c>
-      <c r="B133" t="s">
-        <v>141</v>
-      </c>
-      <c r="C133" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" t="s">
         <v>224</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D136" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" t="s">
+        <v>85</v>
+      </c>
+      <c r="D137" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" t="s">
+        <v>85</v>
+      </c>
+      <c r="D138" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" t="s">
+        <v>222</v>
+      </c>
+      <c r="D139" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>262</v>
-      </c>
-      <c r="B134" t="s">
-        <v>40</v>
-      </c>
-      <c r="C134" t="s">
-        <v>220</v>
-      </c>
-      <c r="D134" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>290</v>
-      </c>
-      <c r="B135" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" t="s">
-        <v>220</v>
-      </c>
-      <c r="D135" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>69</v>
-      </c>
-      <c r="B136" t="s">
-        <v>69</v>
-      </c>
-      <c r="C136" t="s">
-        <v>220</v>
-      </c>
-      <c r="D136" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" t="s">
+        <v>222</v>
+      </c>
+      <c r="D140" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>98</v>
-      </c>
-      <c r="B137" t="s">
-        <v>98</v>
-      </c>
-      <c r="C137" t="s">
-        <v>225</v>
-      </c>
-      <c r="D137" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>44</v>
-      </c>
-      <c r="B138" t="s">
-        <v>44</v>
-      </c>
-      <c r="C138" t="s">
-        <v>220</v>
-      </c>
-      <c r="D138" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" t="s">
-        <v>133</v>
-      </c>
-      <c r="C139" t="s">
-        <v>220</v>
-      </c>
-      <c r="D139" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>132</v>
-      </c>
-      <c r="B140" t="s">
-        <v>132</v>
-      </c>
-      <c r="C140" t="s">
-        <v>225</v>
-      </c>
-      <c r="D140" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C141" t="s">
         <v>238</v>
       </c>
       <c r="D141" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C142" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D142" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C144" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D144" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C145" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D145" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>264</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="C146" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D146" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>265</v>
+        <v>153</v>
       </c>
       <c r="C147" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="D147" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="C148" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="D148" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>155</v>
       </c>
       <c r="C149" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="D149" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="C150" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="D150" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="C151" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="D151" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="C152" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="D152" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>271</v>
+        <v>159</v>
       </c>
       <c r="C153" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="D153" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="C154" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="D154" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="C155" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="D155" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="D156" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C157" t="s">
+        <v>224</v>
+      </c>
+      <c r="D157" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" t="s">
+        <v>164</v>
+      </c>
+      <c r="C158" t="s">
         <v>225</v>
       </c>
-      <c r="D157" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>114</v>
-      </c>
-      <c r="B158" t="s">
-        <v>114</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>252</v>
+      </c>
+      <c r="B159" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159" t="s">
         <v>238</v>
       </c>
-      <c r="D158" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>208</v>
-      </c>
-      <c r="B159" t="s">
-        <v>208</v>
-      </c>
-      <c r="C159" t="s">
-        <v>222</v>
-      </c>
       <c r="D159" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="B160" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
         <v>238</v>
       </c>
       <c r="D160" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C161" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D161" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="C162" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D162" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="C163" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D163" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C164" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D164" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="C165" t="s">
         <v>225</v>
       </c>
       <c r="D165" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166" t="s">
+        <v>222</v>
+      </c>
+      <c r="D166" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>285</v>
-      </c>
-      <c r="B166" t="s">
-        <v>25</v>
-      </c>
-      <c r="C166" t="s">
-        <v>220</v>
-      </c>
-      <c r="D166" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>250</v>
+      </c>
+      <c r="B167" t="s">
+        <v>173</v>
+      </c>
+      <c r="C167" t="s">
+        <v>225</v>
+      </c>
+      <c r="D167" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>176</v>
+      </c>
+      <c r="B168" t="s">
+        <v>176</v>
+      </c>
+      <c r="C168" t="s">
+        <v>225</v>
+      </c>
+      <c r="D168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" t="s">
+        <v>177</v>
+      </c>
+      <c r="C169" t="s">
+        <v>225</v>
+      </c>
+      <c r="D169" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" t="s">
+        <v>225</v>
+      </c>
+      <c r="D170" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" t="s">
+        <v>297</v>
+      </c>
+      <c r="C171" t="s">
+        <v>238</v>
+      </c>
+      <c r="D171" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>29</v>
-      </c>
-      <c r="B167" t="s">
-        <v>251</v>
-      </c>
-      <c r="C167" t="s">
-        <v>220</v>
-      </c>
-      <c r="D167" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>32</v>
-      </c>
-      <c r="B168" t="s">
-        <v>32</v>
-      </c>
-      <c r="C168" t="s">
-        <v>220</v>
-      </c>
-      <c r="D168" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>291</v>
-      </c>
-      <c r="B169" t="s">
-        <v>40</v>
-      </c>
-      <c r="C169" t="s">
-        <v>220</v>
-      </c>
-      <c r="D169" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>48</v>
-      </c>
-      <c r="B170" t="s">
-        <v>48</v>
-      </c>
-      <c r="C170" t="s">
-        <v>238</v>
-      </c>
-      <c r="D170" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>49</v>
-      </c>
-      <c r="B171" t="s">
-        <v>49</v>
-      </c>
-      <c r="C171" t="s">
-        <v>220</v>
-      </c>
-      <c r="D171" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="C172" t="s">
         <v>238</v>
       </c>
       <c r="D172" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="C173" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D173" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="C174" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D174" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="C175" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D175" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="C176" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D176" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="B177" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="C177" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D177" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="B178" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="C178" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D178" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="B179" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="C179" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D179" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="B180" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="C180" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D180" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="B181" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="C181" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D181" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="B182" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="C182" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D182" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="B183" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="C183" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D183" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="C184" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D184" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="B185" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="C185" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D185" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="B186" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="C186" t="s">
         <v>220</v>
       </c>
       <c r="D186" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="B187" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C187" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D187" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="B188" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="C188" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D188" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="B189" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="C189" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D189" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="B190" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C190" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D190" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B191" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="C191" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D191" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="B192" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C192" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D192" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C193" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D193" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="C194" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D194" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B195" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="C195" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D195" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B196" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="C196" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D196" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="B197" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="C197" t="s">
         <v>220</v>
@@ -9564,12 +9575,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="C198" t="s">
         <v>220</v>
@@ -9578,12 +9589,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C199" t="s">
         <v>220</v>
@@ -9592,126 +9603,166 @@
         <v>221</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C200" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D200" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="B201" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C201" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D201" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C202" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D202" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C203" t="s">
         <v>220</v>
       </c>
       <c r="D203" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="C204" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D204" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="B205" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="C205" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D205" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C206" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D206" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C207" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="D207" t="s">
         <v>227</v>
       </c>
     </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>214</v>
+      </c>
+      <c r="B208" t="s">
+        <v>214</v>
+      </c>
+      <c r="C208" t="s">
+        <v>225</v>
+      </c>
+      <c r="D208" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" t="s">
+        <v>215</v>
+      </c>
+      <c r="C209" t="s">
+        <v>220</v>
+      </c>
+      <c r="D209" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>209</v>
+      </c>
+      <c r="C210" t="s">
+        <v>222</v>
+      </c>
+      <c r="D210" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D207">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Kelp Forest Alliance"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D209" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D210">
+    <sortCondition ref="A2:A210"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/sen/sn_match_ego_alter_organizations_2025-09-23_KEY.xlsx
+++ b/data/sen/sn_match_ego_alter_organizations_2025-09-23_KEY.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/marfisher_ucdavis_edu/Documents/Documents/russian/data/sen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:40009_{DA35E2E0-F40F-47BB-B568-810BF0932543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE607FD4-2EAA-4DE7-B3D7-D4BB6AA1DE51}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:40009_{DA35E2E0-F40F-47BB-B568-810BF0932543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B5FCA63-D7AA-4598-AA53-DB0D97314AB2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sn_match_ego_alter_organization" sheetId="1" r:id="rId1"/>
     <sheet name="key" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">key!$A$1:$D$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">key!$A$1:$D$216</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="303">
   <si>
     <t>org_name</t>
   </si>
@@ -944,6 +944,9 @@
   </si>
   <si>
     <t>NOAA Office of National Marine Sanctuaries - West Coast Region</t>
+  </si>
+  <si>
+    <t>NOAA Cordell Bank National Marine Sanctuary - Advisory Council</t>
   </si>
 </sst>
 </file>
@@ -3924,7 +3927,7 @@
       </c>
       <c r="H82">
         <f>COUNTIF(key!A:A,sn_match_ego_alter_organization!A82)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -4032,11 +4035,11 @@
       </c>
       <c r="G86">
         <f>COUNTIF(key!A:A,sn_match_ego_alter_organization!B86)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <f>COUNTIF(key!A:A,sn_match_ego_alter_organization!A86)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -4351,7 +4354,7 @@
       </c>
       <c r="H98">
         <f>COUNTIF(key!A:A,sn_match_ego_alter_organization!A98)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -4532,7 +4535,7 @@
       </c>
       <c r="H105">
         <f>COUNTIF(key!A:A,sn_match_ego_alter_organization!A105)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -4557,7 +4560,7 @@
       </c>
       <c r="H106">
         <f>COUNTIF(key!A:A,sn_match_ego_alter_organization!A106)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -6207,7 +6210,7 @@
       </c>
       <c r="H169">
         <f>COUNTIF(key!A:A,sn_match_ego_alter_organization!A169)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
@@ -6223,7 +6226,7 @@
       </c>
       <c r="H170">
         <f>COUNTIF(key!A:A,sn_match_ego_alter_organization!A170)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
@@ -6803,16 +6806,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114:D114"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="72" customWidth="1"/>
-    <col min="2" max="2" width="42.36328125" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="20.6328125" customWidth="1"/>
     <col min="4" max="4" width="24.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7872,7 +7875,7 @@
         <v>255</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
         <v>224</v>
@@ -7928,7 +7931,7 @@
         <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
         <v>224</v>
@@ -8079,94 +8082,94 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D91" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D92" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
         <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>225</v>
@@ -8177,38 +8180,38 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D98" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
         <v>224</v>
@@ -8219,38 +8222,38 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D101" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B102" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D102" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s">
         <v>238</v>
@@ -8261,10 +8264,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s">
         <v>238</v>
@@ -8275,13 +8278,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D105" t="s">
         <v>227</v>
@@ -8289,10 +8292,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B106" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
         <v>238</v>
@@ -8303,13 +8306,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D107" t="s">
         <v>227</v>
@@ -8317,10 +8320,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
         <v>238</v>
@@ -8331,13 +8334,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D109" t="s">
         <v>227</v>
@@ -8345,13 +8348,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D110" t="s">
         <v>227</v>
@@ -8359,13 +8362,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D111" t="s">
         <v>227</v>
@@ -8373,13 +8376,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="C112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D112" t="s">
         <v>227</v>
@@ -8387,13 +8390,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D113" t="s">
         <v>227</v>
@@ -8401,10 +8404,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
         <v>238</v>
@@ -8415,80 +8418,80 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D115" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>294</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D116" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D117" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D118" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
         <v>225</v>
       </c>
       <c r="D119" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
         <v>225</v>
@@ -8499,27 +8502,27 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
         <v>225</v>
       </c>
       <c r="D121" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D122" t="s">
         <v>221</v>
@@ -8527,206 +8530,206 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D123" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D124" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D125" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
         <v>225</v>
       </c>
       <c r="D126" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="C127" t="s">
         <v>220</v>
       </c>
       <c r="D127" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D128" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D129" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
         <v>220</v>
       </c>
       <c r="D130" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="D131" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>295</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="D132" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D133" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D134" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D135" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="D136" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="C137" t="s">
         <v>85</v>
@@ -8737,41 +8740,41 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="D138" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D139" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D140" t="s">
         <v>223</v>
@@ -8779,136 +8782,136 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D141" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="D142" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="D143" t="s">
-        <v>227</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D144" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D145" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D146" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
         <v>222</v>
       </c>
       <c r="D147" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
         <v>225</v>
       </c>
       <c r="D148" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D149" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
         <v>220</v>
@@ -8919,66 +8922,66 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D151" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D152" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D153" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D154" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
         <v>220</v>
@@ -8989,24 +8992,24 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D156" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
         <v>224</v>
@@ -9017,69 +9020,69 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D158" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D159" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D160" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D161" t="s">
-        <v>223</v>
+        <v>85</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D162" t="s">
         <v>226</v>
@@ -9087,10 +9090,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
         <v>225</v>
@@ -9101,38 +9104,38 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D164" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D165" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
         <v>222</v>
@@ -9143,178 +9146,178 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D167" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
         <v>225</v>
       </c>
       <c r="D168" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C169" t="s">
         <v>225</v>
       </c>
       <c r="D169" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C170" t="s">
         <v>225</v>
       </c>
       <c r="D170" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D171" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D172" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D173" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D174" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D175" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="C176" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D176" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D177" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C178" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D178" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C179" t="s">
         <v>220</v>
@@ -9325,10 +9328,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C180" t="s">
         <v>220</v>
@@ -9339,10 +9342,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C181" t="s">
         <v>220</v>
@@ -9353,13 +9356,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B182" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="C182" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D182" t="s">
         <v>221</v>
@@ -9367,10 +9370,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="B183" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C183" t="s">
         <v>220</v>
@@ -9381,10 +9384,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="B184" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
         <v>220</v>
@@ -9395,10 +9398,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C185" t="s">
         <v>220</v>
@@ -9409,10 +9412,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
         <v>220</v>
@@ -9423,10 +9426,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C187" t="s">
         <v>220</v>
@@ -9437,10 +9440,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="B188" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C188" t="s">
         <v>220</v>
@@ -9451,10 +9454,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
         <v>220</v>
@@ -9465,10 +9468,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C190" t="s">
         <v>220</v>
@@ -9479,10 +9482,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="B191" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C191" t="s">
         <v>220</v>
@@ -9493,10 +9496,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
         <v>220</v>
@@ -9507,10 +9510,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B193" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C193" t="s">
         <v>220</v>
@@ -9521,10 +9524,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C194" t="s">
         <v>220</v>
@@ -9535,10 +9538,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="B195" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C195" t="s">
         <v>220</v>
@@ -9549,10 +9552,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C196" t="s">
         <v>220</v>
@@ -9563,10 +9566,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B197" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="C197" t="s">
         <v>220</v>
@@ -9577,10 +9580,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="B198" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
         <v>220</v>
@@ -9591,10 +9594,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C199" t="s">
         <v>220</v>
@@ -9605,97 +9608,97 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D200" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D201" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D202" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="B203" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="C203" t="s">
         <v>220</v>
       </c>
       <c r="D203" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="C204" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D204" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D205" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D206" t="s">
         <v>226</v>
@@ -9703,13 +9706,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="C207" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D207" t="s">
         <v>227</v>
@@ -9717,50 +9720,134 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C208" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D208" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C209" t="s">
         <v>220</v>
       </c>
       <c r="D209" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>211</v>
+      </c>
+      <c r="C210" t="s">
+        <v>224</v>
+      </c>
+      <c r="D210" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>258</v>
+      </c>
+      <c r="B211" t="s">
+        <v>211</v>
+      </c>
+      <c r="C211" t="s">
+        <v>224</v>
+      </c>
+      <c r="D211" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>212</v>
+      </c>
+      <c r="C212" t="s">
+        <v>225</v>
+      </c>
+      <c r="D212" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>213</v>
+      </c>
+      <c r="C213" t="s">
+        <v>253</v>
+      </c>
+      <c r="D213" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>214</v>
+      </c>
+      <c r="C214" t="s">
+        <v>225</v>
+      </c>
+      <c r="D214" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>215</v>
+      </c>
+      <c r="C215" t="s">
+        <v>220</v>
+      </c>
+      <c r="D215" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B216" t="s">
         <v>209</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C216" t="s">
         <v>222</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D216" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D209" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D210">
-    <sortCondition ref="A2:A210"/>
+  <autoFilter ref="A1:D216" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D216">
+    <sortCondition ref="A2:A216"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/sen/sn_match_ego_alter_organizations_2025-09-23_KEY.xlsx
+++ b/data/sen/sn_match_ego_alter_organizations_2025-09-23_KEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/marfisher_ucdavis_edu/Documents/Documents/russian/data/sen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:40009_{DA35E2E0-F40F-47BB-B568-810BF0932543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B5FCA63-D7AA-4598-AA53-DB0D97314AB2}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:40009_{DA35E2E0-F40F-47BB-B568-810BF0932543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0844BFF-9237-4494-A44D-E4EAE40E63A4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="304">
   <si>
     <t>org_name</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>NOAA Cordell Bank National Marine Sanctuary - Advisory Council</t>
+  </si>
+  <si>
+    <t>Photographer 1</t>
   </si>
 </sst>
 </file>
@@ -6806,10 +6809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9844,6 +9847,146 @@
         <v>231</v>
       </c>
     </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>265</v>
+      </c>
+      <c r="B217" t="s">
+        <v>265</v>
+      </c>
+      <c r="C217" t="s">
+        <v>85</v>
+      </c>
+      <c r="D217" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>268</v>
+      </c>
+      <c r="B218" t="s">
+        <v>268</v>
+      </c>
+      <c r="C218" t="s">
+        <v>85</v>
+      </c>
+      <c r="D218" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>272</v>
+      </c>
+      <c r="B219" t="s">
+        <v>272</v>
+      </c>
+      <c r="C219" t="s">
+        <v>85</v>
+      </c>
+      <c r="D219" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>266</v>
+      </c>
+      <c r="B220" t="s">
+        <v>266</v>
+      </c>
+      <c r="C220" t="s">
+        <v>85</v>
+      </c>
+      <c r="D220" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>269</v>
+      </c>
+      <c r="B221" t="s">
+        <v>269</v>
+      </c>
+      <c r="C221" t="s">
+        <v>85</v>
+      </c>
+      <c r="D221" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>270</v>
+      </c>
+      <c r="B222" t="s">
+        <v>270</v>
+      </c>
+      <c r="C222" t="s">
+        <v>85</v>
+      </c>
+      <c r="D222" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>271</v>
+      </c>
+      <c r="B223" t="s">
+        <v>271</v>
+      </c>
+      <c r="C223" t="s">
+        <v>85</v>
+      </c>
+      <c r="D223" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>267</v>
+      </c>
+      <c r="B224" t="s">
+        <v>267</v>
+      </c>
+      <c r="C224" t="s">
+        <v>85</v>
+      </c>
+      <c r="D224" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>303</v>
+      </c>
+      <c r="B225" t="s">
+        <v>295</v>
+      </c>
+      <c r="C225" t="s">
+        <v>85</v>
+      </c>
+      <c r="D225" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>273</v>
+      </c>
+      <c r="B226" t="s">
+        <v>273</v>
+      </c>
+      <c r="C226" t="s">
+        <v>85</v>
+      </c>
+      <c r="D226" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D216" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D216">

--- a/data/sen/sn_match_ego_alter_organizations_2025-09-23_KEY.xlsx
+++ b/data/sen/sn_match_ego_alter_organizations_2025-09-23_KEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/marfisher_ucdavis_edu/Documents/Documents/russian/data/sen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:40009_{DA35E2E0-F40F-47BB-B568-810BF0932543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0844BFF-9237-4494-A44D-E4EAE40E63A4}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:40009_{DA35E2E0-F40F-47BB-B568-810BF0932543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C29A89-DD6C-4FB9-9978-1D2927F60998}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="key" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">key!$A$1:$D$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">key!$A$1:$D$226</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6811,8 +6811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7167,7 +7167,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
         <v>223</v>
@@ -7713,7 +7713,7 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D64" t="s">
         <v>227</v>
@@ -7727,7 +7727,7 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D65" t="s">
         <v>227</v>
@@ -7909,7 +7909,7 @@
         <v>292</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D78" t="s">
         <v>227</v>
@@ -8441,7 +8441,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D116" t="s">
         <v>227</v>
@@ -8791,7 +8791,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="D141" t="s">
         <v>221</v>
@@ -9256,7 +9256,7 @@
         <v>225</v>
       </c>
       <c r="D174" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -9988,7 +9988,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D216" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D216">
     <sortCondition ref="A2:A216"/>
   </sortState>
